--- a/Rhythm_Machine_I2C_データ・フォーマット.xlsx
+++ b/Rhythm_Machine_I2C_データ・フォーマット.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -59,17 +59,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロータリーエンコーダーの値</t>
-    <rPh sb="12" eb="13">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>POT1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -121,10 +110,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2015.09.29</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rhythm Machine I2C データ・フォーマット</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -142,20 +127,6 @@
   </si>
   <si>
     <t>NOTE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>START</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0: 停止 1:再生</t>
-    <rPh sb="3" eb="5">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サイセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -190,13 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロータリーエンコーダーのSWのトグル状態</t>
-    <rPh sb="18" eb="20">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スイッチ（4個）のトグル状態</t>
     <rPh sb="6" eb="7">
       <t>コ</t>
@@ -254,6 +218,70 @@
   <si>
     <t>0..15</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015.10.27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unsigned</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UPDATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更の有無</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:変更なし 1:変更あり</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRACK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラック番号</t>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0..2(暫定)</t>
+    <rPh sb="5" eb="7">
+      <t>ザンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンスの再生フラグ</t>
+    <rPh sb="6" eb="8">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0: 停止 1:再生</t>
   </si>
 </sst>
 </file>
@@ -322,7 +350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,6 +364,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -632,9 +663,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F32"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -646,12 +682,12 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -659,15 +695,15 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -675,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>1</v>
@@ -684,318 +720,330 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" s="2" customFormat="1">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" s="2" customFormat="1">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" s="2" customFormat="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
         <v>13</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="4" t="s">
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
         <v>31</v>
       </c>
-      <c r="E23" t="s">
-        <v>38</v>
-      </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
         <v>32</v>
       </c>
-      <c r="E24" t="s">
-        <v>39</v>
-      </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="F25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="4" t="s">
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
         <v>31</v>
       </c>
-      <c r="E30" t="s">
-        <v>38</v>
-      </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
         <v>32</v>
       </c>
-      <c r="E31" t="s">
-        <v>39</v>
-      </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:6">
       <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33">
         <v>4</v>
       </c>
-      <c r="D32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" t="s">
-        <v>36</v>
+      <c r="D33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Rhythm_Machine_I2C_データ・フォーマット.xlsx
+++ b/Rhythm_Machine_I2C_データ・フォーマット.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SEQUENCE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sign</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -242,16 +238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0:変更なし 1:変更あり</t>
-    <rPh sb="2" eb="4">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TRACK</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -281,7 +267,96 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0: 停止 1:再生</t>
+    <t>1 再生 0:停止</t>
+    <rPh sb="2" eb="4">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1 UPDATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POT2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POT1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQUENCE1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQUENCE2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQUENCE1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRACK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:変更なし ※sheet2 *1参照</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQUENCE2</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -350,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,6 +443,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -666,52 +747,53 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F33"/>
+  <dimension ref="B2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="6" max="6" width="29.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:8">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>1</v>
@@ -720,94 +802,101 @@
         <v>2</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" s="2" customFormat="1">
-      <c r="B8" s="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" s="2" customFormat="1">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
       <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" s="2" customFormat="1">
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" s="2" customFormat="1">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="5" t="s">
+    </row>
+    <row r="10" spans="2:8" s="2" customFormat="1">
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" s="2" customFormat="1">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11">
-        <v>1</v>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="5">
+        <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13">
-        <v>3</v>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="5">
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -816,15 +905,15 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14">
-        <v>4</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="5">
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -833,12 +922,12 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -846,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>1</v>
@@ -855,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -863,29 +952,29 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>21</v>
       </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -893,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>1</v>
@@ -902,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -910,13 +999,13 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -924,13 +1013,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -938,13 +1027,13 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
         <v>33</v>
-      </c>
-      <c r="F25" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -952,18 +1041,18 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
         <v>28</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>29</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -971,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>1</v>
@@ -980,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -988,13 +1077,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -1002,13 +1091,13 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -1016,13 +1105,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
         <v>33</v>
-      </c>
-      <c r="F32" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -1030,33 +1119,102 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" t="s">
         <v>28</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>29</v>
-      </c>
-      <c r="F33" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="88" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="9" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Rhythm_Machine_I2C_データ・フォーマット.xlsx
+++ b/Rhythm_Machine_I2C_データ・フォーマット.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0..255</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>unsigned</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -216,10 +212,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2015.10.27</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>unsigned</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -356,6 +348,18 @@
   </si>
   <si>
     <t>SEQUENCE2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015.10.31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4bit 0..15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4bit 0..15</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -750,7 +754,7 @@
   <dimension ref="B2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -764,12 +768,12 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -777,15 +781,15 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -810,16 +814,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="2" customFormat="1">
@@ -827,16 +831,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:8" s="2" customFormat="1">
@@ -844,16 +848,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -862,16 +866,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -882,13 +886,13 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -905,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -922,12 +926,12 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -952,29 +956,29 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>20</v>
       </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -999,13 +1003,13 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -1013,13 +1017,13 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -1027,13 +1031,13 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
         <v>32</v>
-      </c>
-      <c r="F25" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -1041,18 +1045,18 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>28</v>
-      </c>
-      <c r="F26" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -1077,13 +1081,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -1091,13 +1095,13 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -1105,13 +1109,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
         <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -1119,13 +1123,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" t="s">
         <v>27</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>28</v>
-      </c>
-      <c r="F33" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1155,59 +1159,59 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="I4" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Rhythm_Machine_I2C_データ・フォーマット.xlsx
+++ b/Rhythm_Machine_I2C_データ・フォーマット.xlsx
@@ -241,13 +241,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0..2(暫定)</t>
-    <rPh sb="5" eb="7">
-      <t>ザンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PLAY</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -351,15 +344,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2015.10.31</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4bit 0..15</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>4bit 0..15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015.10.15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0..7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -754,7 +751,7 @@
   <dimension ref="B2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -773,7 +770,7 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -823,7 +820,7 @@
         <v>40</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:8" s="2" customFormat="1">
@@ -840,7 +837,7 @@
         <v>42</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="2:8" s="2" customFormat="1">
@@ -851,13 +848,13 @@
         <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="H10" s="7"/>
     </row>
@@ -869,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -886,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -909,7 +906,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="2:8">
@@ -926,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -1159,59 +1156,59 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="I4" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Rhythm_Machine_I2C_データ・フォーマット.xlsx
+++ b/Rhythm_Machine_I2C_データ・フォーマット.xlsx
@@ -352,11 +352,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2015.10.15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0..7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015.11.15</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -751,7 +751,7 @@
   <dimension ref="B2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -770,7 +770,7 @@
     </row>
     <row r="3" spans="2:8">
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -837,7 +837,7 @@
         <v>42</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:8" s="2" customFormat="1">
